--- a/assigns/TeamEvals.xlsx
+++ b/assigns/TeamEvals.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="1580" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>1- completely disagree</t>
   </si>
@@ -117,9 +118,6 @@
     <t>__________________     (Teammate #3)</t>
   </si>
   <si>
-    <t>__________________     (Teammate #4)</t>
-  </si>
-  <si>
     <t>OVERALL made important contributions to the project</t>
   </si>
   <si>
@@ -208,13 +206,37 @@
   </si>
   <si>
     <t>___________________________________________________</t>
+  </si>
+  <si>
+    <t>Self Evaluation</t>
+  </si>
+  <si>
+    <t>Effort</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Collaborative</t>
+  </si>
+  <si>
+    <t>Conflict</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Contribution</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,6 +304,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,7 +366,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -361,8 +390,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -381,8 +418,11 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -394,6 +434,10 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -405,43 +449,13 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -595,19 +609,53 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B12:F36" headerRowCount="0" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C12:G36" headerRowCount="0" totalsRowShown="0" dataDxfId="10">
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1" headerRowDxfId="0" dataDxfId="10"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="1" dataDxfId="9"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="2" dataDxfId="8"/>
-    <tableColumn id="4" name="Column4" headerRowDxfId="3" dataDxfId="7"/>
-    <tableColumn id="5" name="Column5" headerRowDxfId="4" dataDxfId="6"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="4" name="Column4" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="5" name="Column5" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -935,282 +983,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" style="6" customWidth="1"/>
-    <col min="2" max="2" width="89.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="3"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="16.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="3"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25">
+    <row r="1" spans="1:7" ht="25">
       <c r="A1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="20">
+      <c r="A3" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="19" thickBot="1"/>
+    <row r="5" spans="1:7" ht="36">
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19" thickBot="1">
+      <c r="C10" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="136" customHeight="1">
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19" thickBot="1"/>
-    <row r="5" spans="1:6" ht="36">
-      <c r="B5" s="9" t="s">
+    <row r="12" spans="1:7" ht="31" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19" thickBot="1">
-      <c r="B10" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="136" customHeight="1">
-      <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="B12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="31" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="31" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="31" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="31" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="31" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="31" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="31" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="31" customHeight="1">
+      <c r="A31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31" customHeight="1">
+      <c r="A33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="31" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="31" customHeight="1">
+      <c r="A35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="31" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="31" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="31" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="31" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="31" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="31" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="31" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="31" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="31" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="31" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="31" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="31" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="31" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="31" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="31" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="31" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="31" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="31" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="31" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="31" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="31" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="B13:H32">
-    <sortCondition ref="H13:H32"/>
+  <sortState ref="C13:I32">
+    <sortCondition ref="I13:I32"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1224,4 +1350,188 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18">
+      <c r="A1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
+      <c r="A2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18">
+      <c r="A11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
+      <c r="A12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18">
+      <c r="A13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18">
+      <c r="A14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18">
+      <c r="A15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18">
+      <c r="A16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B20">
+    <sortCondition ref="A1:A20"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/assigns/TeamEvals.xlsx
+++ b/assigns/TeamEvals.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="1960" yWindow="560" windowWidth="23780" windowHeight="19340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>1- completely disagree</t>
   </si>
@@ -230,6 +230,21 @@
   </si>
   <si>
     <t>Overall</t>
+  </si>
+  <si>
+    <t>Teammate #1</t>
+  </si>
+  <si>
+    <t>Teammate #2</t>
+  </si>
+  <si>
+    <t>Teammate #3</t>
+  </si>
+  <si>
+    <t>Own Contributions</t>
+  </si>
+  <si>
+    <t>Describe the contributions of your teammates here:</t>
   </si>
 </sst>
 </file>
@@ -320,7 +335,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -365,8 +380,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -398,8 +428,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,8 +461,13 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -438,6 +483,11 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -453,6 +503,11 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
@@ -983,16 +1038,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="89.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="12.1640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="3"/>
@@ -1006,10 +1061,9 @@
       <c r="B1" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="20">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="7"/>
       <c r="C3" s="3" t="s">
         <v>61</v>
       </c>
@@ -1333,6 +1387,35 @@
       <c r="C36" s="2" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="109" customHeight="1">
+      <c r="B41" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="1:3" ht="108" customHeight="1">
+      <c r="B42" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="1:3" ht="109" customHeight="1">
+      <c r="B43" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="1:3" ht="107" customHeight="1">
+      <c r="B44" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="15"/>
     </row>
   </sheetData>
   <sortState ref="C13:I32">

--- a/assigns/TeamEvals.xlsx
+++ b/assigns/TeamEvals.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="560" windowWidth="23780" windowHeight="19340" tabRatio="500"/>
+    <workbookView xWindow="1965" yWindow="555" windowWidth="23775" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>1- completely disagree</t>
   </si>
@@ -109,15 +109,6 @@
     <t>Made important contributions in the subject matter of the assignment</t>
   </si>
   <si>
-    <t>__________________     (Teammate #1)</t>
-  </si>
-  <si>
-    <t>__________________     (Teammate #2)</t>
-  </si>
-  <si>
-    <t>__________________     (Teammate #3)</t>
-  </si>
-  <si>
     <t>OVERALL made important contributions to the project</t>
   </si>
   <si>
@@ -205,9 +196,6 @@
     <t>Your name:</t>
   </si>
   <si>
-    <t>___________________________________________________</t>
-  </si>
-  <si>
     <t>Self Evaluation</t>
   </si>
   <si>
@@ -245,6 +233,15 @@
   </si>
   <si>
     <t>Describe the contributions of your teammates here:</t>
+  </si>
+  <si>
+    <t>____________     (Teammate #1)</t>
+  </si>
+  <si>
+    <t>___________   (Teammate #2)</t>
+  </si>
+  <si>
+    <t>__________     (Teammate #3)</t>
   </si>
 </sst>
 </file>
@@ -465,7 +462,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -700,6 +699,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1041,379 +1045,377 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="6" customWidth="1"/>
     <col min="3" max="3" width="89.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="3"/>
-    <col min="10" max="16384" width="10.83203125" style="3"/>
+    <col min="4" max="7" width="12.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="3"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="20">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19" thickBot="1"/>
-    <row r="5" spans="1:7" ht="36">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" thickBot="1">
+    <row r="10" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="136" customHeight="1">
+    <row r="11" spans="1:7" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="31" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="B12" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31" customHeight="1">
+    <row r="13" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31" customHeight="1">
+    <row r="14" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="31" customHeight="1">
+    <row r="15" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31" customHeight="1">
+    <row r="16" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31" customHeight="1">
+    <row r="17" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31" customHeight="1">
+    <row r="18" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31" customHeight="1">
+    <row r="19" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31" customHeight="1">
+    <row r="20" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31" customHeight="1">
+    <row r="21" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31" customHeight="1">
+    <row r="22" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31" customHeight="1">
+    <row r="23" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31" customHeight="1">
+    <row r="24" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="31" customHeight="1">
+    <row r="25" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31" customHeight="1">
+    <row r="26" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="31" customHeight="1">
+    <row r="27" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31" customHeight="1">
+    <row r="28" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31" customHeight="1">
+    <row r="29" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="31" customHeight="1">
+    <row r="30" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31" customHeight="1">
+    <row r="31" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31" customHeight="1">
+    <row r="32" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31" customHeight="1">
+    <row r="33" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31" customHeight="1">
+    <row r="34" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31" customHeight="1">
+    <row r="35" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31" customHeight="1">
+    <row r="36" spans="1:3" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="108.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="1:3" ht="108.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="1:3" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="109" customHeight="1">
-      <c r="B41" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="1:3" ht="108" customHeight="1">
-      <c r="B42" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="1:3" ht="109" customHeight="1">
-      <c r="B43" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="15"/>
-    </row>
-    <row r="44" spans="1:3" ht="107" customHeight="1">
-      <c r="B44" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="C44" s="15"/>
     </row>
@@ -1443,163 +1445,163 @@
       <selection activeCell="B20" sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="18">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18">
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18">
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18">
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18">
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18">
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18">
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18">
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18">
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18">
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18">
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18">
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18">
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18">
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18">
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>9</v>
